--- a/benchmarking/results_of_count_function.xlsx
+++ b/benchmarking/results_of_count_function.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejer/Desktop/rustengine/benchmarking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A01295C-BC25-F341-B259-D9828503E9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED72B80C-5C9E-9C4B-81E5-4B98D38CC99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28240" windowHeight="16300" firstSheet="2" activeTab="7" xr2:uid="{E7C49614-21E1-0C49-99A7-E55A94F1DDD0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28240" windowHeight="16300" xr2:uid="{E7C49614-21E1-0C49-99A7-E55A94F1DDD0}"/>
   </bookViews>
   <sheets>
     <sheet name="results_C" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,13 @@
     <sheet name="results_rust_tiny_vs_large" sheetId="6" r:id="rId5"/>
     <sheet name="results_c_tiny_vs_large" sheetId="7" r:id="rId6"/>
     <sheet name="results_rust_with_file" sheetId="8" r:id="rId7"/>
-    <sheet name="results_rust_buffered_file_read" sheetId="9" r:id="rId8"/>
-    <sheet name="results_c_with_new _count" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="49">
   <si>
     <t>timestamp</t>
   </si>
@@ -156,13 +154,25 @@
     <t>0.13</t>
   </si>
   <si>
-    <t>0.11</t>
+    <t>this is run on the first cengine, but compiled with different flags, to see if it got faster</t>
   </si>
   <si>
-    <t>enwiki-tiny</t>
+    <t>This is run on rustengine_1point1</t>
   </si>
   <si>
-    <t>enwiki-large</t>
+    <t>this is run with rustengine</t>
+  </si>
+  <si>
+    <t>This is run with rustengine_1point1</t>
+  </si>
+  <si>
+    <t>this is run with cengine</t>
+  </si>
+  <si>
+    <t>this is run with a deleted directory, but it was code from chat about how to use file</t>
+  </si>
+  <si>
+    <t>This is run on the first cengine - compiled it is called scanner</t>
   </si>
 </sst>
 </file>
@@ -9445,10 +9455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4542A0EE-E810-2E4F-85C5-641725D84E0B}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9730,6 +9740,11 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -9738,10 +9753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AC3A7D-AD6B-D745-98B0-2F8C85FAB609}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9994,6 +10009,11 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -10002,10 +10022,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F661AC2D-B4A7-C34C-9745-B1559BD3183F}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10258,6 +10278,11 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -10266,10 +10291,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF4EC68-ED40-814B-8139-7A0896210DB8}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10522,6 +10547,11 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -10530,10 +10560,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4597B490-6C92-5D4B-AFCD-53A70876BC7A}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10652,6 +10682,11 @@
         <v>39</v>
       </c>
     </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10659,10 +10694,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BB982F-7448-F448-B1D0-FABAEBB49C80}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10776,6 +10811,11 @@
       </c>
       <c r="L3" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -10785,10 +10825,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25AA84E-1CCB-884C-AD6B-117BB5DD5FEF}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10898,256 +10938,9 @@
         <v>1</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E6CEC5-4820-7343-BF49-0EA8C218AC26}">
-  <dimension ref="A1:L3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>45560.614340277774</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="F2">
-        <v>588</v>
-      </c>
-      <c r="G2">
-        <v>28</v>
-      </c>
-      <c r="H2">
-        <v>314</v>
-      </c>
-      <c r="I2">
-        <v>13</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>45560.614432870374</v>
-      </c>
-      <c r="B3" s="4">
-        <v>5.88</v>
-      </c>
-      <c r="C3" s="4">
-        <v>5.76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="F3">
-        <v>668</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>364</v>
-      </c>
-      <c r="I3">
-        <v>790</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D83573-2F4D-0544-BAB6-C55913144051}">
-  <dimension ref="A1:L3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>45560.631863425922</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="F2">
-        <v>476</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>312</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>45560.631921296299</v>
-      </c>
-      <c r="B3" s="4">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="C3" s="4">
-        <v>3.99</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="F3">
-        <v>476</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>310</v>
-      </c>
-      <c r="I3">
-        <v>1840</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
